--- a/backend/data/newCEEC延伸人.xlsx
+++ b/backend/data/newCEEC延伸人.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>課程名稱</t>
   </si>
   <si>
     <t>最相似的CEEC類型</t>
+  </si>
+  <si>
+    <t>相似度</t>
   </si>
   <si>
     <t>楚漢相爭之職場競爭力</t>
@@ -187,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -201,9 +204,20 @@
       <name val="PMingLiu"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -239,16 +253,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -469,7 +489,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="34.29"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
-    <col customWidth="1" min="3" max="26" width="9.0"/>
+    <col customWidth="1" min="3" max="3" width="13.43"/>
+    <col customWidth="1" min="4" max="26" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -479,412 +500,549 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.316902441</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.351900239</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="C4" s="4">
+        <v>0.374511601</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.259323125</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.279483344</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.349337803</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.196419978</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.208015835</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.295435197</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.309988379</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.280424051</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.424008794</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.424008794</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.309291941</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.302867901</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.302867901</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.358643932</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.324764812</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.304583269</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.304583269</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.252993133</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.323162325</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.265637849</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.446694053</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.374428087</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.362095985</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.362085775</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.252098295</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.338104783</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.384540427</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.34512245</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.327358234</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.359726601</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.318061547</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.302400521</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.385199485</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.346577287</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.42998733</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.42998733</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.416887929</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.380120879</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="C43" s="4">
+        <v>0.337773047</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.329479446</v>
+      </c>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.351500723</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="3"/>
+      <c r="C46" s="4">
+        <v>0.373818647</v>
+      </c>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>

--- a/backend/data/newCEEC延伸人.xlsx
+++ b/backend/data/newCEEC延伸人.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Username\Desktop\Course-recommendation-system-main\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="jTFZe3SDqTJQY3PtMuvMlOl/ddzGxK7Cp/Pi8pjxmBo="/>
@@ -16,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
   <si>
     <t>課程名稱</t>
   </si>
@@ -126,103 +134,212 @@
     <t>歐洲文化專題</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>全球中小型國家發展</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>婚姻與家庭</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>日本語言與文化</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>環境倫理</t>
+  </si>
+  <si>
+    <t>設計倫理</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>工程與法律</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>服務學習</t>
+  </si>
+  <si>
+    <t>科學與倫理</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>愛情關係管理</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>工程倫理</t>
+  </si>
+  <si>
+    <t>CEEC_type</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ategory</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eople</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>職場溝通微功夫</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>職場溝通微功夫</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>全球中小型國家發展</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>婚姻與家庭</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>日本語言與文化</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>環境倫理</t>
-  </si>
-  <si>
-    <t>設計倫理</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>工程與法律</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>服務學習</t>
-  </si>
-  <si>
-    <t>科學與倫理</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>愛情關係管理</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>工程倫理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ink</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>people</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="PMingLiu"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="PMingLiu"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,11 +347,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -248,43 +371,45 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -474,26 +599,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" activeCellId="1" sqref="K26 I23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.29"/>
-    <col customWidth="1" min="2" max="2" width="22.43"/>
-    <col customWidth="1" min="3" max="3" width="13.43"/>
-    <col customWidth="1" min="4" max="26" width="9.0"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,8 +630,20 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -512,47 +651,91 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>0.316902441</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>0.31690244099999998</v>
+      </c>
+      <c r="D2">
+        <v>135</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>135</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>0.351900239</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="D3">
+        <v>136</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>136</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>0.374511601</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>0.37451160100000003</v>
+      </c>
+      <c r="D4">
+        <v>137</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>137</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>0.259323125</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>0.25932312499999999</v>
+      </c>
+      <c r="D5">
+        <v>138</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>138</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -560,11 +743,22 @@
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>0.279483344</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>0.27948334400000002</v>
+      </c>
+      <c r="D6">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>139</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -574,9 +768,20 @@
       <c r="C7" s="4">
         <v>0.349337803</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+      <c r="D7">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>140</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -586,21 +791,43 @@
       <c r="C8" s="4">
         <v>0.196419978</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+      <c r="D8">
+        <v>141</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>141</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>0.208015835</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <v>0.20801583500000001</v>
+      </c>
+      <c r="D9">
+        <v>142</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>142</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -608,11 +835,22 @@
         <v>19</v>
       </c>
       <c r="C10" s="4">
-        <v>0.295435197</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <v>0.29543519699999998</v>
+      </c>
+      <c r="D10">
+        <v>143</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>143</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -620,11 +858,22 @@
         <v>19</v>
       </c>
       <c r="C11" s="4">
-        <v>0.309988379</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <v>0.30998837899999998</v>
+      </c>
+      <c r="D11">
+        <v>144</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>144</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -632,11 +881,22 @@
         <v>21</v>
       </c>
       <c r="C12" s="4">
-        <v>0.280424051</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <v>0.28042405100000001</v>
+      </c>
+      <c r="D12">
+        <v>145</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>145</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -644,11 +904,22 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.424008794</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+        <v>0.42400879400000002</v>
+      </c>
+      <c r="D13">
+        <v>146</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>146</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -656,11 +927,22 @@
         <v>23</v>
       </c>
       <c r="C14" s="4">
-        <v>0.424008794</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>0.42400879400000002</v>
+      </c>
+      <c r="D14">
+        <v>147</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>147</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -668,11 +950,22 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.309291941</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+        <v>0.30929194100000001</v>
+      </c>
+      <c r="D15">
+        <v>148</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>148</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -680,11 +973,22 @@
         <v>27</v>
       </c>
       <c r="C16" s="4">
-        <v>0.302867901</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+        <v>0.30286790099999999</v>
+      </c>
+      <c r="D16">
+        <v>149</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>149</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -692,11 +996,22 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.302867901</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>0.30286790099999999</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -706,9 +1021,20 @@
       <c r="C18" s="4">
         <v>0.358643932</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+      <c r="D18">
+        <v>151</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>151</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -716,11 +1042,22 @@
         <v>21</v>
       </c>
       <c r="C19" s="4">
-        <v>0.324764812</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+        <v>0.32476481200000001</v>
+      </c>
+      <c r="D19">
+        <v>152</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>152</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -728,11 +1065,22 @@
         <v>31</v>
       </c>
       <c r="C20" s="4">
-        <v>0.304583269</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>0.30458326899999999</v>
+      </c>
+      <c r="D20">
+        <v>153</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>153</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -740,11 +1088,22 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.304583269</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>0.30458326899999999</v>
+      </c>
+      <c r="D21">
+        <v>154</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>154</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -752,11 +1111,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="4">
-        <v>0.252993133</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>0.25299313299999998</v>
+      </c>
+      <c r="D22">
+        <v>155</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>155</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -764,11 +1134,22 @@
         <v>34</v>
       </c>
       <c r="C23" s="4">
-        <v>0.323162325</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>0.32316232499999997</v>
+      </c>
+      <c r="D23">
+        <v>156</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>156</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -776,276 +1157,551 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>0.265637849</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>0.26563784899999998</v>
+      </c>
+      <c r="D24">
+        <v>157</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>157</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.42452646199999999</v>
+      </c>
+      <c r="D25">
+        <v>158</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>158</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" s="4">
+        <v>0.44669405299999998</v>
+      </c>
+      <c r="D26">
+        <v>159</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>159</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4">
-        <v>0.446694053</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="4">
+        <v>0.37442808700000002</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>160</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.36209598500000001</v>
+      </c>
+      <c r="D28">
+        <v>161</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>161</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="4">
-        <v>0.374428087</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.362095985</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C29" s="4">
+        <v>0.362085775</v>
+      </c>
+      <c r="D29">
+        <v>162</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>162</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="4">
-        <v>0.362085775</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C30" s="4">
+        <v>0.25209829499999997</v>
+      </c>
+      <c r="D30">
+        <v>163</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30">
+        <v>163</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="4">
-        <v>0.252098295</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.33810478300000002</v>
+      </c>
+      <c r="D31">
+        <v>164</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>164</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0.338104783</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C32" s="4">
+        <v>0.38454042700000002</v>
+      </c>
+      <c r="D32">
+        <v>165</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>165</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="4">
-        <v>0.384540427</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="C33" s="4">
+        <v>0.34512245000000003</v>
+      </c>
+      <c r="D33">
+        <v>166</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33">
+        <v>166</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.32735823400000003</v>
+      </c>
+      <c r="D34">
+        <v>167</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>167</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.35972660099999998</v>
+      </c>
+      <c r="D35">
+        <v>168</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>168</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.34512245</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0.327358234</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="C36" s="4">
+        <v>0.318061547</v>
+      </c>
+      <c r="D36">
+        <v>169</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36">
+        <v>169</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.359726601</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C37" s="4">
+        <v>0.30240052099999998</v>
+      </c>
+      <c r="D37">
+        <v>170</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37">
+        <v>170</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.38519948500000001</v>
+      </c>
+      <c r="D38">
+        <v>171</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>171</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="4">
-        <v>0.318061547</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="C39" s="4">
+        <v>0.34657728700000001</v>
+      </c>
+      <c r="D39">
+        <v>172</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <v>172</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="4">
-        <v>0.302400521</v>
-      </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.385199485</v>
-      </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.346577287</v>
-      </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.42998733</v>
-      </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="C40" s="4">
         <v>0.42998733</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+      <c r="D40">
+        <v>173</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40">
+        <v>173</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="4">
+        <v>0.42998733</v>
+      </c>
+      <c r="D41">
+        <v>174</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41">
+        <v>174</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.41688792899999999</v>
+      </c>
+      <c r="D42">
+        <v>175</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42">
+        <v>175</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="4">
-        <v>0.416887929</v>
-      </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="4">
-        <v>0.380120879</v>
-      </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="4">
+        <v>0.38012087900000002</v>
+      </c>
+      <c r="D43">
+        <v>176</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>176</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="4">
-        <v>0.337773047</v>
-      </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="4">
-        <v>0.329479446</v>
-      </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>0.33777304699999999</v>
+      </c>
+      <c r="D44">
+        <v>177</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>177</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.32947944600000001</v>
+      </c>
+      <c r="D45">
+        <v>178</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45">
+        <v>178</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="4">
-        <v>0.351500723</v>
-      </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="4">
+        <v>0.35150072300000001</v>
+      </c>
+      <c r="D46">
+        <v>179</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46">
+        <v>179</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C47" s="4">
         <v>0.373818647</v>
       </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="D47">
+        <v>180</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <v>180</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -1998,9 +2654,8 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>